--- a/MISTDO.Web/wwwroot/ExportTrainees.xlsx
+++ b/MISTDO.Web/wwwroot/ExportTrainees.xlsx
@@ -12,66 +12,264 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Training Center ID</t>
-  </si>
-  <si>
-    <t>Training Center Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Trainee ID</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Phone NUmber</t>
-  </si>
-  <si>
-    <t>19235ea5-fb0e-44a5-87b5-14c82daee64d</t>
-  </si>
-  <si>
-    <t>wragby training</t>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Company Address</t>
+  </si>
+  <si>
+    <t>User Address</t>
+  </si>
+  <si>
+    <t>Registration Date</t>
+  </si>
+  <si>
+    <t>atinuke</t>
+  </si>
+  <si>
+    <t>bunmi</t>
+  </si>
+  <si>
+    <t>254d5767-0298-4983-bcd3-3a1c764420ad</t>
+  </si>
+  <si>
+    <t>atinuke@gmail.com</t>
+  </si>
+  <si>
+    <t>Trevo Beverages</t>
+  </si>
+  <si>
+    <t>lekki lagos</t>
+  </si>
+  <si>
+    <t>12/7/2018 10:02:07 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omodele </t>
+  </si>
+  <si>
+    <t>tholu</t>
+  </si>
+  <si>
+    <t>391e5c58-3cc5-485d-9ed3-d8a936833713</t>
+  </si>
+  <si>
+    <t>omodele@gmail.com</t>
+  </si>
+  <si>
+    <t>wragby</t>
+  </si>
+  <si>
+    <t>jhascjhkcjklcdlh</t>
+  </si>
+  <si>
+    <t>11/29/2018 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>dave</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>4e118055-364b-44df-bc0e-784f1091fd8a</t>
+  </si>
+  <si>
+    <t>dave@gmail.com</t>
+  </si>
+  <si>
+    <t>12/6/2018 3:04:02 PM</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>josh</t>
+  </si>
+  <si>
+    <t>63f4bba5-7225-415a-9054-36e426f78484</t>
+  </si>
+  <si>
+    <t>max@gmail.com</t>
+  </si>
+  <si>
+    <t>12/7/2018 11:27:41 AM</t>
+  </si>
+  <si>
+    <t>olayemi</t>
+  </si>
+  <si>
+    <t>omtola</t>
+  </si>
+  <si>
+    <t>63f93c2b-3b26-44a6-a374-e0e4d35d4fc8</t>
+  </si>
+  <si>
+    <t>omotola@gmail.com</t>
+  </si>
+  <si>
+    <t>telco company</t>
+  </si>
+  <si>
+    <t>lekki epe</t>
+  </si>
+  <si>
+    <t>12/7/2018 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>dane</t>
+  </si>
+  <si>
+    <t>6573633b-fdfb-4ba9-9abe-91cef1d94daf</t>
+  </si>
+  <si>
+    <t>base@gmail.com</t>
+  </si>
+  <si>
+    <t>12/6/2018 3:31:20 PM</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>7cd8a627-2c89-4344-9460-f7c1684ca901</t>
+  </si>
+  <si>
+    <t>love@gmail.com</t>
+  </si>
+  <si>
+    <t>12/6/2018 3:02:48 PM</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>816fa855-c86f-412a-a33f-18c88b7300a0</t>
+  </si>
+  <si>
+    <t>boblee@gmail.com</t>
+  </si>
+  <si>
+    <t>1/1/0001 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>omolola</t>
+  </si>
+  <si>
+    <t>gabriel</t>
+  </si>
+  <si>
+    <t>8810331b-211c-4bcf-a93e-5343ec970ad2</t>
   </si>
   <si>
     <t>a@a.com</t>
   </si>
   <si>
+    <t>lekki</t>
+  </si>
+  <si>
+    <t>11/27/2018 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>Joy</t>
+  </si>
+  <si>
+    <t>934f8065-5a3f-4c5a-9d78-4ceef2d018f5</t>
+  </si>
+  <si>
+    <t>joywalter@gmail.com</t>
+  </si>
+  <si>
+    <t>femi</t>
+  </si>
+  <si>
+    <t>ogunyomi</t>
+  </si>
+  <si>
+    <t>d6104c7f-d151-4f4f-b7cd-21e8eea9524d</t>
+  </si>
+  <si>
+    <t>femi4god2010@gmail.com</t>
+  </si>
+  <si>
+    <t>boiler plate</t>
+  </si>
+  <si>
+    <t>scarfold</t>
+  </si>
+  <si>
+    <t>Titlade</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>d9e57e32-1846-4dca-81fa-6e3319e22ac4</t>
+  </si>
+  <si>
+    <t>titiladesam@gmail.com</t>
+  </si>
+  <si>
+    <t>opeyemi</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>e53c8666-6804-4bdf-b996-5ceb9d7ed8c2</t>
+  </si>
+  <si>
+    <t>c@c.com</t>
+  </si>
+  <si>
+    <t>ioqoqduasjk</t>
+  </si>
+  <si>
+    <t>12/3/2018 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>fac32225-5d02-4cad-a91e-659f5d7567c2</t>
+  </si>
+  <si>
+    <t>timdavid@gmail.com</t>
+  </si>
+  <si>
+    <t>fdfcd166-ddea-4bca-b7d0-da2cadfbb7aa</t>
+  </si>
+  <si>
+    <t>b@b.com</t>
+  </si>
+  <si>
     <t>lekki ajah</t>
   </si>
   <si>
-    <t>08920122298</t>
-  </si>
-  <si>
-    <t>a2595897-ac36-413a-a4eb-97e5eef1e81e</t>
-  </si>
-  <si>
-    <t>Demo Training Centre</t>
-  </si>
-  <si>
-    <t>dprogt@gmail.com</t>
-  </si>
-  <si>
-    <t>21, Olubunmi Rotimi street, Lekki Phase 1</t>
-  </si>
-  <si>
-    <t>0902304920</t>
-  </si>
-  <si>
-    <t>e71f01ff-bcd1-4c68-8ec7-b00fb2e52e68</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>test@gmail.com</t>
-  </si>
-  <si>
-    <t>sample address</t>
-  </si>
-  <si>
-    <t>08136483943</t>
+    <t>11/12/2018 12:00:00 AM</t>
   </si>
 </sst>
 </file>
@@ -123,7 +321,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -145,61 +343,406 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>19</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/MISTDO.Web/wwwroot/ExportTrainees.xlsx
+++ b/MISTDO.Web/wwwroot/ExportTrainees.xlsx
@@ -12,30 +12,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Module ID</t>
-  </si>
-  <si>
-    <t>Module Name</t>
-  </si>
-  <si>
-    <t>Module Description</t>
-  </si>
-  <si>
-    <t>Module Registration Cost</t>
-  </si>
-  <si>
-    <t>Module Code</t>
-  </si>
-  <si>
-    <t>SHE Downstream HSE</t>
-  </si>
-  <si>
-    <t>Downstream HSE training course</t>
-  </si>
-  <si>
-    <t>SD-HSE101</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Trainee ID</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Company Address</t>
+  </si>
+  <si>
+    <t>User Address</t>
+  </si>
+  <si>
+    <t>Registration Date</t>
+  </si>
+  <si>
+    <t>omobolale</t>
+  </si>
+  <si>
+    <t>oladele</t>
+  </si>
+  <si>
+    <t>1b66e1aa-b125-4efa-89a0-0fc51e0fa959</t>
+  </si>
+  <si>
+    <t>r@d.com</t>
+  </si>
+  <si>
+    <t>wragby</t>
+  </si>
+  <si>
+    <t>lekki</t>
+  </si>
+  <si>
+    <t>3/12/2019 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>Chidi</t>
+  </si>
+  <si>
+    <t>Ike</t>
+  </si>
+  <si>
+    <t>592a08ac-1e74-417f-a6ae-a3e26546f002</t>
+  </si>
+  <si>
+    <t>z@z.com</t>
+  </si>
+  <si>
+    <t>Safety Test</t>
+  </si>
+  <si>
+    <t>lekki lagos</t>
+  </si>
+  <si>
+    <t>3/29/2019 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>ola</t>
+  </si>
+  <si>
+    <t>5ffc3f6d-4775-485b-9173-52c8ed05f4b7</t>
+  </si>
+  <si>
+    <t>a@ola.com</t>
+  </si>
+  <si>
+    <t>3/11/2019 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>ogunyomi</t>
+  </si>
+  <si>
+    <t>femi</t>
+  </si>
+  <si>
+    <t>785af0ec-1d8b-4d8d-b2c5-0ebadfe4f63b</t>
+  </si>
+  <si>
+    <t>a@femi.com</t>
+  </si>
+  <si>
+    <t>lekki epe</t>
+  </si>
+  <si>
+    <t>omolola</t>
+  </si>
+  <si>
+    <t>gabriel</t>
+  </si>
+  <si>
+    <t>dedcabd6-2a95-41d3-98ad-18eef730409c</t>
+  </si>
+  <si>
+    <t>a@a.com</t>
+  </si>
+  <si>
+    <t>1/23/2019 12:00:00 AM</t>
   </si>
 </sst>
 </file>
@@ -87,7 +171,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -109,27 +193,146 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="0">
-        <v>2</v>
+      <c r="A2" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="0">
-        <v>38500</v>
+        <v>10</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/MISTDO.Web/wwwroot/ExportTrainees.xlsx
+++ b/MISTDO.Web/wwwroot/ExportTrainees.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>First Name</t>
   </si>
@@ -35,6 +35,12 @@
     <t>User Address</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
     <t>Registration Date</t>
   </si>
   <si>
@@ -44,7 +50,7 @@
     <t>oladele</t>
   </si>
   <si>
-    <t>1b66e1aa-b125-4efa-89a0-0fc51e0fa959</t>
+    <t>MISTDO/14H8TNGLPG</t>
   </si>
   <si>
     <t>r@d.com</t>
@@ -56,6 +62,9 @@
     <t>lekki</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>3/12/2019 12:00:00 AM</t>
   </si>
   <si>
@@ -65,7 +74,7 @@
     <t>Ike</t>
   </si>
   <si>
-    <t>592a08ac-1e74-417f-a6ae-a3e26546f002</t>
+    <t>MISTDO/BXOJCW8NQ6</t>
   </si>
   <si>
     <t>z@z.com</t>
@@ -83,7 +92,7 @@
     <t>ola</t>
   </si>
   <si>
-    <t>5ffc3f6d-4775-485b-9173-52c8ed05f4b7</t>
+    <t>MISTDO/O7OJYASCHR</t>
   </si>
   <si>
     <t>a@ola.com</t>
@@ -98,7 +107,7 @@
     <t>femi</t>
   </si>
   <si>
-    <t>785af0ec-1d8b-4d8d-b2c5-0ebadfe4f63b</t>
+    <t>MISTDO/R38DOX761G</t>
   </si>
   <si>
     <t>a@femi.com</t>
@@ -113,7 +122,7 @@
     <t>gabriel</t>
   </si>
   <si>
-    <t>dedcabd6-2a95-41d3-98ad-18eef730409c</t>
+    <t>MISTDO/XBROJSDLAJ</t>
   </si>
   <si>
     <t>a@a.com</t>
@@ -202,137 +211,171 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
